--- a/donnees_joueurs.xlsx
+++ b/donnees_joueurs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,103 +436,743 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.futwiz.com/en/fc24/player/kim-little/84</v>
+        <v>https://www.futwiz.com/en/fc24/player/leonardo-bonucci/18434</v>
       </c>
       <c r="B2" t="str">
-        <v>https://cdn.futwiz.com/assets/img/fc24/faces/245872.png</v>
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/67293208.png</v>
       </c>
       <c r="C2" t="str">
-        <v>Kim Little FC 24 Non-Inform</v>
+        <v>Leonardo Bonucci FC 24 Champions League Live</v>
       </c>
       <c r="D2" t="str">
-        <v>Arsenal</v>
+        <v>Union Berlin</v>
       </c>
       <c r="E2" t="str">
-        <v>Barclays WSL</v>
+        <v>GER 1</v>
       </c>
       <c r="F2" t="str">
-        <v>7,000</v>
+        <v>16,500</v>
       </c>
       <c r="G2" t="str">
-        <v>-665 (-8.68%) -367 (-4.55%)</v>
+        <v>396 (2.46%) 292 (1.70%)</v>
       </c>
       <c r="H2" t="str">
-        <v xml:space="preserve">Updated: 3 min ago Updated: 5 hrs ago </v>
+        <v xml:space="preserve">Updated: 4 min ago Updated: 4 min ago </v>
       </c>
       <c r="I2" t="str">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" t="str">
-        <v>CM</v>
+        <v>CB</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.futwiz.com/en/fc24/player/matthijs-de-ligt/238</v>
+        <v>https://www.futwiz.com/en/fc24/player/edin-dzeko/18435</v>
       </c>
       <c r="B3" t="str">
-        <v>https://cdn.futwiz.com/assets/img/fc24/faces/235243.png</v>
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50512578.png</v>
       </c>
       <c r="C3" t="str">
-        <v>Matthijs de Ligt FC 24 Non-Inform</v>
+        <v>Edin Dzeko FC 24 Europa Conference Live</v>
       </c>
       <c r="D3" t="str">
-        <v>FC Bayern München</v>
+        <v>Fenerbahçe</v>
       </c>
       <c r="E3" t="str">
-        <v>GER 1</v>
+        <v>TUR 1</v>
       </c>
       <c r="F3" t="str">
-        <v>7,200</v>
+        <v>19,250</v>
       </c>
       <c r="G3" t="str">
-        <v>-581 (-7.47%) 825 (10.89%)</v>
+        <v>-123 (-0.63%) 650 (3.36%)</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve">Updated: 5 min ago Updated: 5 hrs ago </v>
+        <v xml:space="preserve">Updated: 4 min ago Updated: 4 min ago </v>
       </c>
       <c r="I3" t="str">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3" t="str">
-        <v>CB</v>
+        <v>ST</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.futwiz.com/en/fc24/player/marco-verratti/261</v>
+        <v>https://www.futwiz.com/en/fc24/player/svenja-huth/18438</v>
       </c>
       <c r="B4" t="str">
-        <v>https://cdn.futwiz.com/assets/img/fc24/faces/199556.png</v>
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/227337.png</v>
       </c>
       <c r="C4" t="str">
-        <v>Marco Verratti FC 24 Non-Inform</v>
+        <v>Svenja Huth FC 24 Non-Inform</v>
       </c>
       <c r="D4" t="str">
+        <v>VfL Wolfsburg</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Frauen Bundesliga</v>
+      </c>
+      <c r="F4" t="str">
+        <v>14,750</v>
+      </c>
+      <c r="G4" t="str">
+        <v>-871 (-5.58%) 83 (0.52%)</v>
+      </c>
+      <c r="H4" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I4" t="str">
+        <v>87</v>
+      </c>
+      <c r="J4" t="str">
+        <v>RM</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/dries-mertens/18437</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50507591.png</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Dries Mertens FC 24 Champions League Live</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Galatasaray</v>
+      </c>
+      <c r="E5" t="str">
+        <v>TUR 1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>18,000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>-4,922 (-21.47%) -7,050 (-25.13%)</v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I5" t="str">
+        <v>87</v>
+      </c>
+      <c r="J5" t="str">
+        <v>CF</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/kieran-trippier/18415</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50517993.png</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Kieran Trippier FC 24 Inform</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Newcastle Utd</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ENG 1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>20,000</v>
+      </c>
+      <c r="G6" t="str">
+        <v>750 (3.90%) 1,625 (9.09%)</v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve">Updated: 3 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I6" t="str">
+        <v>86</v>
+      </c>
+      <c r="J6" t="str">
+        <v>RB</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/mats-wieffer/18443</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50580441.png</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Mats Wieffer FC 24 Champions League Live</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Feyenoord</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NED 1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>10,750</v>
+      </c>
+      <c r="G7" t="str">
+        <v>135 (1.27%) -83 (-0.77%)</v>
+      </c>
+      <c r="H7" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I7" t="str">
+        <v>84</v>
+      </c>
+      <c r="J7" t="str">
+        <v>CDM</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/pedro-goncalves/18445</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50572598.png</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Pedro Goncalves FC 24 Europa League Live</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Sporting CP</v>
+      </c>
+      <c r="E8" t="str">
+        <v>POR 1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>11,000</v>
+      </c>
+      <c r="G8" t="str">
+        <v>-607 (-5.23%) -1,500 (-12.50%)</v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I8" t="str">
+        <v>84</v>
+      </c>
+      <c r="J8" t="str">
+        <v>LW</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/anderson-talisca/18417</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50544171.png</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Anderson Talisca FC 24 Inform</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Al Nassr</v>
+      </c>
+      <c r="E9" t="str">
+        <v>SAU 1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>14,000</v>
+      </c>
+      <c r="G9" t="str">
+        <v>-113 (-0.80%) -1,333 (-9.30%)</v>
+      </c>
+      <c r="H9" t="str">
+        <v xml:space="preserve">Updated: 3 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I9" t="str">
+        <v>84</v>
+      </c>
+      <c r="J9" t="str">
+        <v>RM</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/toby-alderweireld/18464</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50515735.png</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Toby Alderweireld FC 24 Inform</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Royal Antwerp FC</v>
+      </c>
+      <c r="E10" t="str">
+        <v>BEL 1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>11,000</v>
+      </c>
+      <c r="G10" t="str">
+        <v>43 (0.39%) 714 (6.62%)</v>
+      </c>
+      <c r="H10" t="str">
+        <v xml:space="preserve">Updated: 6 min ago Updated: 5 min ago </v>
+      </c>
+      <c r="I10" t="str">
+        <v>84</v>
+      </c>
+      <c r="J10" t="str">
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/kiliann-sildillia/18447</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50592578.png</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Kiliann Sildillia FC 24 Europa League Live</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SC Freiburg</v>
+      </c>
+      <c r="E11" t="str">
+        <v>GER 1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>13,750</v>
+      </c>
+      <c r="G11" t="str">
+        <v>-1,694 (-10.97%) -4,100 (-23.98%)</v>
+      </c>
+      <c r="H11" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I11" t="str">
+        <v>83</v>
+      </c>
+      <c r="J11" t="str">
+        <v>RB</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/goncalo-ramos/18419</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50588551.png</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Goncalo Ramos FC 24 Inform</v>
+      </c>
+      <c r="D12" t="str">
         <v>Paris SG</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E12" t="str">
         <v>FRA 1</v>
       </c>
-      <c r="F4" t="str">
-        <v>7,200</v>
-      </c>
-      <c r="G4" t="str">
-        <v>-529 (-6.84%) 329 (4.35%)</v>
-      </c>
-      <c r="H4" t="str">
-        <v xml:space="preserve">Updated: 5 min ago Updated: 5 hrs ago </v>
-      </c>
-      <c r="I4" t="str">
-        <v>86</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="F12" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="G12" t="str">
+        <v>69 (0.58%) 750 (6.12%)</v>
+      </c>
+      <c r="H12" t="str">
+        <v xml:space="preserve">Updated: 3 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I12" t="str">
+        <v>83</v>
+      </c>
+      <c r="J12" t="str">
+        <v>ST</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/enzo-fernandez/18396</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50578738.png</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Enzo Fernandez FC 24 Nike MAD Ready</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Chelsea</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ENG 1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>13,750</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1,528 (12.50%) 5,333 (45.71%)</v>
+      </c>
+      <c r="H13" t="str">
+        <v xml:space="preserve">Updated: 3 min ago Updated: 2 min ago </v>
+      </c>
+      <c r="I13" t="str">
+        <v>83</v>
+      </c>
+      <c r="J13" t="str">
         <v>CM</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/exequiel-palacios/18421</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50563169.png</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Exequiel Palacios FC 24 Inform</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Leverkusen</v>
+      </c>
+      <c r="E14" t="str">
+        <v>GER 1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>11,000</v>
+      </c>
+      <c r="G14" t="str">
+        <v>136 (1.25%) 292 (2.61%)</v>
+      </c>
+      <c r="H14" t="str">
+        <v xml:space="preserve">Updated: 4 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I14" t="str">
+        <v>83</v>
+      </c>
+      <c r="J14" t="str">
+        <v>CM</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/deiver-machado/18446</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50552485.png</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Deiver Machado FC 24 Champions League Live</v>
+      </c>
+      <c r="D15" t="str">
+        <v>RC Lens</v>
+      </c>
+      <c r="E15" t="str">
+        <v>FRA 1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>11,000</v>
+      </c>
+      <c r="G15" t="str">
+        <v>208 (1.93%) 500 (4.55%)</v>
+      </c>
+      <c r="H15" t="str">
+        <v xml:space="preserve">Updated: 5 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I15" t="str">
+        <v>83</v>
+      </c>
+      <c r="J15" t="str">
+        <v>LWB</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/jean-clair-todibo/18423</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50577036.png</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Jean-Clair Todibo FC 24 Inform</v>
+      </c>
+      <c r="D16" t="str">
+        <v>OGC Nice</v>
+      </c>
+      <c r="E16" t="str">
+        <v>FRA 1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>12,500</v>
+      </c>
+      <c r="G16" t="str">
+        <v>-168 (-1.33%) 500 (4.17%)</v>
+      </c>
+      <c r="H16" t="str">
+        <v xml:space="preserve">Updated: 4 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I16" t="str">
+        <v>82</v>
+      </c>
+      <c r="J16" t="str">
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/riccardo-orsolini/18465</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50565204.png</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Riccardo Orsolini FC 24 Inform</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Bologna</v>
+      </c>
+      <c r="E17" t="str">
+        <v>ITA 1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10,500</v>
+      </c>
+      <c r="G17" t="str">
+        <v>-27 (-0.26%) -150 (-1.41%)</v>
+      </c>
+      <c r="H17" t="str">
+        <v xml:space="preserve">Updated: 6 min ago Updated: 5 min ago </v>
+      </c>
+      <c r="I17" t="str">
+        <v>82</v>
+      </c>
+      <c r="J17" t="str">
+        <v>RM</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/joachim-andersen/18466</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50555869.png</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Joachim Andersen FC 24 Inform</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Crystal Palace</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ENG 1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>11,000</v>
+      </c>
+      <c r="G18" t="str">
+        <v>442 (4.19%) -313 (-2.89%)</v>
+      </c>
+      <c r="H18" t="str">
+        <v xml:space="preserve">Updated: 6 min ago Updated: 5 min ago </v>
+      </c>
+      <c r="I18" t="str">
+        <v>82</v>
+      </c>
+      <c r="J18" t="str">
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/pietro-terracciano/18422</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50537460.png</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Pietro Terracciano FC 24 Inform</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Fiorentina</v>
+      </c>
+      <c r="E19" t="str">
+        <v>ITA 1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10,500</v>
+      </c>
+      <c r="G19" t="str">
+        <v>-19 (-0.18%)</v>
+      </c>
+      <c r="H19" t="str">
+        <v xml:space="preserve">Updated: 4 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I19" t="str">
+        <v>82</v>
+      </c>
+      <c r="J19" t="str">
+        <v>GK</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/kerem-akturkoglu/17802</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50590228.png</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Kerem Akturkoglu FC 24 Inform</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Galatasaray</v>
+      </c>
+      <c r="E20" t="str">
+        <v>TUR 1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10,750</v>
+      </c>
+      <c r="G20" t="str">
+        <v>378 (3.64%)</v>
+      </c>
+      <c r="H20" t="str">
+        <v xml:space="preserve">Updated: 2 min ago Updated: 1 week ago </v>
+      </c>
+      <c r="I20" t="str">
+        <v>81</v>
+      </c>
+      <c r="J20" t="str">
+        <v>LM</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/terem-moffi/17809</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50586648.png</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Terem Moffi FC 24 Inform</v>
+      </c>
+      <c r="D21" t="str">
+        <v>OGC Nice</v>
+      </c>
+      <c r="E21" t="str">
+        <v>FRA 1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10,750</v>
+      </c>
+      <c r="G21" t="str">
+        <v>-222 (-2.02%) 400 (3.77%)</v>
+      </c>
+      <c r="H21" t="str">
+        <v xml:space="preserve">Updated: 2 min ago Updated: 1 week ago </v>
+      </c>
+      <c r="I21" t="str">
+        <v>81</v>
+      </c>
+      <c r="J21" t="str">
+        <v>ST</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/alexander-djiku/18424</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/212219.png</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Alexander Djiku FC 24 Inform</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Fenerbahçe</v>
+      </c>
+      <c r="E22" t="str">
+        <v>TUR 1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="G22" t="str">
+        <v>-155 (-1.53%)</v>
+      </c>
+      <c r="H22" t="str">
+        <v xml:space="preserve">Updated: 4 min ago Updated: 3 min ago </v>
+      </c>
+      <c r="I22" t="str">
+        <v>81</v>
+      </c>
+      <c r="J22" t="str">
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/robert-taylor/18427</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50571592.png</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Robert Taylor FC 24 Inform</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Inter Miami CF</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MLS</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10,750</v>
+      </c>
+      <c r="G23" t="str">
+        <v>540 (5.29%) -380 (-3.66%)</v>
+      </c>
+      <c r="H23" t="str">
+        <v xml:space="preserve">Updated: 4 min ago Updated: 4 min ago </v>
+      </c>
+      <c r="I23" t="str">
+        <v>80</v>
+      </c>
+      <c r="J23" t="str">
+        <v>CF</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://www.futwiz.com/en/fc24/player/alen-halilovic/18326</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://cdn.futwiz.com/assets/img/fc24/faces/50547997.png</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Alen Halilovic FC 24 Inform</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Fortuna Sittard</v>
+      </c>
+      <c r="E24" t="str">
+        <v>NED 1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10,500</v>
+      </c>
+      <c r="G24" t="str">
+        <v>300 (2.94%) 940 (8.90%)</v>
+      </c>
+      <c r="H24" t="str">
+        <v xml:space="preserve">Updated: 3 min ago Updated: 2 min ago </v>
+      </c>
+      <c r="I24" t="str">
+        <v>80</v>
+      </c>
+      <c r="J24" t="str">
+        <v>CAM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J24"/>
   </ignoredErrors>
 </worksheet>
 </file>